--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -398,16 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹本　篤郎</t>
-    <rPh sb="0" eb="2">
-      <t>タケモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アツロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>滞在管理システム</t>
     <rPh sb="0" eb="2">
       <t>タイザイ</t>
@@ -428,14 +418,6 @@
     <rPh sb="4" eb="5">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,6 +454,67 @@
   </si>
   <si>
     <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べログ画面</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹本　篤郎先生</t>
+    <rPh sb="0" eb="2">
+      <t>タケモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツロウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津田沼近辺のラーメン屋検索ツール</t>
+    <rPh sb="0" eb="3">
+      <t>ツダヌマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンペン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森谷</t>
+    <rPh sb="0" eb="2">
+      <t>モリヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1630,6 +1673,2763 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>659353</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42114</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="405848" y="1515717"/>
+          <a:ext cx="7509070" cy="4804614"/>
+          <a:chOff x="2357941" y="1038513"/>
+          <a:chExt cx="7509070" cy="4804614"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2408652" y="1038513"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>システムへ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アクセス</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2408652" y="1756487"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>グーグルマップを使用</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2408651" y="2474461"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ラーメン屋の店名とピンを表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="34" idx="2"/>
+            <a:endCxn id="35" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3030627" y="1470852"/>
+            <a:ext cx="0" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="35" idx="2"/>
+            <a:endCxn id="36" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3030626" y="2188826"/>
+            <a:ext cx="1" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2407833" y="3192435"/>
+            <a:ext cx="1244767" cy="427177"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualInput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>店名アイコン選択</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6120079" y="3994497"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメント表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2401411" y="4779923"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>マップに戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="42" name="グループ化 41"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2357941" y="3905247"/>
+            <a:ext cx="1343731" cy="589041"/>
+            <a:chOff x="0" y="2866734"/>
+            <a:chExt cx="1367117" cy="571501"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="ひし形 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2866734"/>
+              <a:ext cx="1367117" cy="571501"/>
+            </a:xfrm>
+            <a:prstGeom prst="diamond">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="テキスト ボックス 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="62345" y="2967587"/>
+              <a:ext cx="1229363" cy="392415"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>アイコン選択している</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="39" idx="2"/>
+            <a:endCxn id="65" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3029807" y="3619612"/>
+            <a:ext cx="410" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="2"/>
+            <a:endCxn id="39" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3030217" y="2906800"/>
+            <a:ext cx="409" cy="328353"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="65" idx="2"/>
+            <a:endCxn id="41" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3023386" y="4494288"/>
+            <a:ext cx="6421" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="65" idx="3"/>
+            <a:endCxn id="40" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3701672" y="4199768"/>
+            <a:ext cx="2418407" cy="10899"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="テキスト ボックス 49"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3052022" y="4494288"/>
+            <a:ext cx="317203" cy="230832"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>No</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="テキスト ボックス 47"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3762951" y="3955191"/>
+            <a:ext cx="363689" cy="242374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Yes</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8622244" y="3986178"/>
+            <a:ext cx="1244767" cy="427177"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualInput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>リンクを押下</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8623062" y="4695902"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>別ウィンドウを</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8623062" y="5410788"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>食べログを表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="40" idx="3"/>
+            <a:endCxn id="51" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7364028" y="4199767"/>
+            <a:ext cx="1258216" cy="10900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="51" idx="2"/>
+            <a:endCxn id="52" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9244628" y="4413355"/>
+            <a:ext cx="409" cy="282547"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="52" idx="2"/>
+            <a:endCxn id="57" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9245037" y="5128241"/>
+            <a:ext cx="0" cy="282547"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3876751" y="2466179"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>店名管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6120079" y="4779923"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメント管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="3"/>
+            <a:endCxn id="61" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3652600" y="2687749"/>
+            <a:ext cx="224151" cy="2882"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="40" idx="2"/>
+            <a:endCxn id="62" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6742054" y="4426836"/>
+            <a:ext cx="8527" cy="353087"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1986,7 +4786,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+      <selection activeCell="D10" sqref="D10:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2000,7 +4800,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -2019,7 +4819,7 @@
         <v>28</v>
       </c>
       <c r="P1" s="59">
-        <v>41792</v>
+        <v>41807</v>
       </c>
       <c r="Q1" s="60"/>
     </row>
@@ -2184,7 +4984,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
@@ -2244,7 +5044,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
@@ -2744,8 +5544,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2765,9 +5565,8 @@
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="82"/>
-      <c r="D1" s="83" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D1" s="83" t="s">
+        <v>49</v>
       </c>
       <c r="E1" s="84"/>
       <c r="F1" s="85"/>
@@ -2790,10 +5589,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41807</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2873,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="78"/>
@@ -2881,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N6" s="78"/>
       <c r="O6" s="78"/>
@@ -2895,20 +5694,24 @@
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="69" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="78"/>
+      <c r="I7" s="78" t="s">
+        <v>44</v>
+      </c>
       <c r="J7" s="78"/>
       <c r="K7" s="78"/>
       <c r="L7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="78"/>
+      <c r="M7" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="N7" s="78"/>
       <c r="O7" s="78"/>
       <c r="P7" s="9"/>
@@ -3716,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="91"/>
       <c r="G9" s="26"/>
@@ -3739,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="91"/>
       <c r="G10" s="26"/>
@@ -3762,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="91"/>
       <c r="G11" s="26"/>
@@ -3785,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="91"/>
       <c r="G12" s="26"/>
@@ -3808,7 +6611,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="26"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_詳細" sheetId="14" r:id="rId1"/>
     <sheet name="処理1" sheetId="8" r:id="rId2"/>
-    <sheet name="物理データ" sheetId="12" r:id="rId3"/>
+    <sheet name="物理データ " sheetId="15" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">処理1!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_詳細!$A$1:$Q$36</definedName>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -69,10 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム処理設計書</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
@@ -187,17 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○○管理テーブル</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>苗字</t>
     <rPh sb="0" eb="2">
       <t>ミョウジ</t>
@@ -205,10 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>凡例</t>
     <rPh sb="0" eb="2">
       <t>ハンレイ</t>
@@ -240,14 +224,6 @@
     <rPh sb="0" eb="1">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー（Key）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -421,38 +397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名称</t>
-    <rPh sb="3" eb="5">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室番号</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入室フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,6 +459,203 @@
     <rPh sb="0" eb="2">
       <t>モリヤ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ情報テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店コード</t>
+    <rPh sb="0" eb="1">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店名</t>
+    <rPh sb="0" eb="2">
+      <t>テンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shopname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べログへのリンク</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント情報テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者の名前</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shopid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -609,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -971,13 +1112,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,227 +1192,251 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4433,6 +4611,45 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙_基本"/>
+      <sheetName val="概略"/>
+      <sheetName val="機能 "/>
+      <sheetName val="画面１"/>
+      <sheetName val="画面２"/>
+      <sheetName val="画面3"/>
+      <sheetName val="画面4"/>
+      <sheetName val="論理データ"/>
+      <sheetName val="表紙_詳細"/>
+      <sheetName val="処理"/>
+      <sheetName val="物理データ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>津田沼近辺のラーメン屋検索ツール</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4799,32 +5016,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="59">
+      <c r="A1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="68">
         <v>41807</v>
       </c>
-      <c r="Q1" s="60"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="2"/>
@@ -4838,14 +5055,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="2"/>
@@ -4859,12 +5076,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="50"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="2"/>
@@ -4878,71 +5095,71 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="50"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="E5" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="41"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="2"/>
@@ -4958,10 +5175,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="2"/>
@@ -4977,166 +5194,166 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="41"/>
+      <c r="Q9" s="38"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="D10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="38"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="41"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="41"/>
+      <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="E13" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="41"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -5152,183 +5369,183 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="37"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="37"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="37"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="37"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="41"/>
+      <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="37"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="37"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="37"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="41"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="37"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="34"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="37"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="34"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
@@ -5336,20 +5553,20 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="41"/>
+      <c r="I28" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
@@ -5357,26 +5574,26 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57" t="s">
+      <c r="I29" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="41"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
@@ -5384,20 +5601,20 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="41"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
@@ -5405,18 +5622,18 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="41"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
@@ -5424,18 +5641,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="41"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
@@ -5443,18 +5660,18 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="41"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
@@ -5462,18 +5679,18 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="41"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
@@ -5481,43 +5698,37 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="41"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="45"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -5527,6 +5738,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5544,7 +5761,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -5560,25 +5777,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="H1" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5589,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P1" s="19">
         <v>41807</v>
@@ -5620,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5640,7 +5857,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5658,62 +5875,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="69">
+      <c r="B6" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="53">
         <v>1</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
+      <c r="B7" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5724,11 +5941,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="23"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
@@ -5742,11 +5959,11 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="9"/>
@@ -5760,11 +5977,11 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="9"/>
@@ -5778,11 +5995,11 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="9"/>
@@ -5796,11 +6013,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="9"/>
@@ -5814,11 +6031,11 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="9"/>
@@ -5832,11 +6049,11 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="9"/>
@@ -5850,11 +6067,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="9"/>
@@ -5868,11 +6085,11 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="23"/>
       <c r="M16"/>
       <c r="N16" s="2"/>
       <c r="O16" s="9"/>
@@ -5886,11 +6103,11 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="9"/>
@@ -5904,16 +6121,16 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="35" t="s">
-        <v>20</v>
+      <c r="P18" s="32" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -5924,11 +6141,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="9"/>
@@ -5942,11 +6159,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="24"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="9"/>
@@ -5960,11 +6177,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="9"/>
@@ -5978,11 +6195,11 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="9"/>
@@ -5996,11 +6213,11 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="9"/>
@@ -6014,11 +6231,11 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="9"/>
@@ -6032,11 +6249,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="9"/>
@@ -6050,11 +6267,11 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="9"/>
@@ -6068,11 +6285,11 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="9"/>
@@ -6086,11 +6303,11 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="24"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="9"/>
@@ -6104,11 +6321,11 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="9"/>
@@ -6122,11 +6339,11 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="24"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="9"/>
@@ -6140,16 +6357,16 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="35" t="s">
-        <v>21</v>
+      <c r="P31" s="32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -6160,11 +6377,11 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="9"/>
@@ -6178,11 +6395,11 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="9"/>
@@ -6196,11 +6413,11 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="24"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="24"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="9"/>
@@ -6214,11 +6431,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="24"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="9"/>
@@ -6232,11 +6449,11 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="24"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="9"/>
@@ -6250,11 +6467,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="24"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="24"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="9"/>
@@ -6268,11 +6485,11 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="25"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="11"/>
@@ -6298,17 +6515,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6327,15 +6544,19 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -6343,40 +6564,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="str">
+        <f>[1]表紙_基本!D10</f>
+        <v>津田沼近辺のラーメン屋検索ツール</v>
+      </c>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="20" t="s">
+      <c r="H1" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6401,10 +6622,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6424,7 +6645,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6445,14 +6666,14 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -6461,250 +6682,302 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="29">
+      <c r="C9" s="21"/>
+      <c r="D9" s="28">
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="E9" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="25">
+        <v>8</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="29">
-        <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
+      <c r="C10" s="21"/>
+      <c r="D10" s="28">
+        <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="E10" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="25">
+        <v>8</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="29">
+      <c r="C11" s="21"/>
+      <c r="D11" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="E11" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="25">
+        <v>8</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
+      <c r="C12" s="21"/>
+      <c r="D12" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="E12" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="25">
+        <v>20</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="29">
+      <c r="C13" s="21"/>
+      <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="E13" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="96"/>
+      <c r="G13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="25">
+        <v>100</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="3"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28">
+        <v>1</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="25">
+        <v>8</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
@@ -6713,19 +6986,26 @@
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="2"/>
+      <c r="D18" s="28">
+        <v>2</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="25">
+        <v>20</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
@@ -6734,19 +7014,26 @@
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="2"/>
+      <c r="D19" s="100">
+        <v>3</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="101">
+        <v>20</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
@@ -6755,19 +7042,26 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="2"/>
+      <c r="D20" s="28">
+        <v>4</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="25">
+        <v>8</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
@@ -6776,18 +7070,15 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="85"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6797,18 +7088,15 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="85"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6818,18 +7106,15 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6839,18 +7124,15 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6860,18 +7142,15 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="85"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -6881,18 +7160,15 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="85"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -6902,15 +7178,15 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -6921,14 +7197,14 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -6939,14 +7215,14 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6957,14 +7233,14 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6975,14 +7251,14 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6993,14 +7269,14 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -7011,14 +7287,14 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7029,14 +7305,14 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7047,14 +7323,14 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -7065,14 +7341,14 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -7083,14 +7359,14 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7101,14 +7377,14 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7133,57 +7409,37 @@
       <c r="P39" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="24">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="C7" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_詳細" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム処理設計書</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
@@ -182,13 +178,6 @@
     <t>テーブル設計書</t>
     <rPh sb="4" eb="7">
       <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苗字</t>
-    <rPh sb="0" eb="2">
-      <t>ミョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -462,14 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,6 +637,21 @@
   </si>
   <si>
     <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1288,6 +1284,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,50 +1377,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,53 +1410,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,8 +1622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833894" y="4084301"/>
-          <a:ext cx="750794" cy="454570"/>
+          <a:off x="10074090" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1871,8 +1867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="405848" y="1515717"/>
-          <a:ext cx="7509070" cy="4804614"/>
+          <a:off x="411695" y="1474792"/>
+          <a:ext cx="7766805" cy="4640910"/>
           <a:chOff x="2357941" y="1038513"/>
           <a:chExt cx="7509070" cy="4804614"/>
         </a:xfrm>
@@ -5003,7 +4999,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:N12"/>
+      <selection activeCell="E13" sqref="E13:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5017,7 +5013,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -5033,12 +5029,12 @@
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
       <c r="O1" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="68">
-        <v>41807</v>
-      </c>
-      <c r="Q1" s="69"/>
+        <v>20</v>
+      </c>
+      <c r="P1" s="64">
+        <v>41810</v>
+      </c>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5055,11 +5051,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="O2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5104,17 +5100,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="E5" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5125,15 +5121,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5144,15 +5140,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5200,19 +5196,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
+      <c r="D10" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5221,17 +5217,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5240,17 +5236,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5260,17 +5256,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="E13" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5281,15 +5277,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5300,15 +5296,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5319,15 +5315,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5338,15 +5334,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5377,15 +5373,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="F19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5398,13 +5394,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5417,13 +5413,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5436,13 +5432,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5455,13 +5451,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5474,13 +5470,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5493,13 +5489,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5553,16 +5549,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="65"/>
+      <c r="I28" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5574,22 +5570,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="66" t="s">
-        <v>25</v>
+      <c r="I29" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="J29" s="62"/>
       <c r="K29" s="62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L29" s="62"/>
       <c r="M29" s="62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N29" s="62"/>
       <c r="O29" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="67"/>
+        <v>25</v>
+      </c>
+      <c r="P29" s="63"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5601,16 +5597,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="57"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="78"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5622,14 +5618,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5641,14 +5637,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5660,14 +5656,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5679,14 +5675,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5698,14 +5694,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="61"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5729,6 +5725,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -5738,12 +5740,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5761,15 +5757,17 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="15" width="10.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -5777,39 +5775,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="H1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P1" s="19">
-        <v>41807</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5837,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5857,7 +5855,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5875,62 +5873,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="53">
+      <c r="B6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
+        <v>7</v>
+      </c>
+      <c r="M6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="53" t="s">
+      <c r="B7" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6130,7 +6128,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6366,7 +6364,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -6515,17 +6513,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6544,8 +6542,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6564,40 +6562,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="H1" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41810</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6622,10 +6620,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6645,7 +6643,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6683,10 +6681,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -6706,29 +6704,29 @@
       <c r="B8" s="16"/>
       <c r="C8" s="21"/>
       <c r="D8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="90"/>
+        <v>41</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="101"/>
       <c r="G8" s="51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
+        <v>44</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
       <c r="N8" s="20"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
@@ -6741,25 +6739,25 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="96"/>
+      <c r="E9" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="99"/>
       <c r="G9" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I9" s="25">
         <v>8</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
+        <v>48</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
       <c r="N9" s="20"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
@@ -6772,23 +6770,23 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="96"/>
+      <c r="E10" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="99"/>
       <c r="G10" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I10" s="25">
         <v>8</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
@@ -6801,23 +6799,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="96"/>
+      <c r="E11" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="99"/>
       <c r="G11" s="25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I11" s="25">
         <v>8</v>
       </c>
       <c r="J11" s="25"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
       <c r="N11" s="20"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
@@ -6830,23 +6828,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="96"/>
+      <c r="E12" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="99"/>
       <c r="G12" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I12" s="25">
         <v>20</v>
       </c>
       <c r="J12" s="25"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
       <c r="N12" s="20"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
@@ -6859,23 +6857,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="96"/>
+      <c r="E13" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="99"/>
       <c r="G13" s="25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I13" s="25">
         <v>100</v>
       </c>
       <c r="J13" s="25"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
       <c r="N13" s="20"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
@@ -6884,9 +6882,9 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -6902,10 +6900,10 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -6925,29 +6923,29 @@
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
       <c r="D16" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="90"/>
+        <v>63</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="101"/>
       <c r="G16" s="51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
+        <v>44</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="20"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
@@ -6959,25 +6957,25 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="96"/>
+      <c r="E17" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="99"/>
       <c r="G17" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I17" s="25">
         <v>8</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
+        <v>68</v>
+      </c>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
@@ -6989,23 +6987,23 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="89"/>
+      <c r="E18" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="95"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I18" s="25">
         <v>20</v>
       </c>
       <c r="J18" s="25"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
@@ -7014,26 +7012,26 @@
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="100">
+      <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="101" t="s">
-        <v>77</v>
+      <c r="E19" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="G19" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="101">
+        <v>74</v>
+      </c>
+      <c r="I19" s="57">
         <v>20</v>
       </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
@@ -7045,23 +7043,23 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="96"/>
+      <c r="E20" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="99"/>
       <c r="G20" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I20" s="25">
         <v>8</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
@@ -7070,7 +7068,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="98"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="20"/>
@@ -7088,7 +7086,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="98"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="20"/>
@@ -7106,7 +7104,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="98"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="20"/>
@@ -7124,7 +7122,7 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="98"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="20"/>
@@ -7142,7 +7140,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="98"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="20"/>
@@ -7160,7 +7158,7 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="98"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="20"/>
@@ -7178,7 +7176,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="98"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="20"/>
@@ -7410,30 +7408,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_詳細" sheetId="14" r:id="rId1"/>
@@ -415,19 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹本　篤郎先生</t>
-    <rPh sb="0" eb="2">
-      <t>タケモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アツロウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>津田沼近辺のラーメン屋検索ツール</t>
     <rPh sb="0" eb="3">
       <t>ツダヌマ</t>
@@ -628,10 +615,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>shopid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -652,6 +635,23 @@
   </si>
   <si>
     <t>6.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹本　篤郎様</t>
+    <rPh sb="0" eb="2">
+      <t>タケモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツロウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1302,6 +1302,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,9 +1347,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,67 +1377,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,23 +1428,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1622,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10074090" y="3955677"/>
+          <a:off x="10163737" y="3955677"/>
           <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
@@ -1850,32 +1850,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>659353</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>42114</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460777</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156861</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvPr id="212" name="グループ化 211"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="411695" y="1474792"/>
-          <a:ext cx="7766805" cy="4640910"/>
-          <a:chOff x="2357941" y="1038513"/>
-          <a:chExt cx="7509070" cy="4804614"/>
+          <a:off x="291352" y="1871383"/>
+          <a:ext cx="9369454" cy="3518625"/>
+          <a:chOff x="600475" y="952787"/>
+          <a:chExt cx="9369454" cy="3518625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="213" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2052,7 +2052,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="214" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2209,7 +2209,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="215" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2357,79 +2357,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="34" idx="2"/>
-            <a:endCxn id="35" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3030627" y="1470852"/>
-            <a:ext cx="0" cy="285635"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="35" idx="2"/>
-            <a:endCxn id="36" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3030626" y="2188826"/>
-            <a:ext cx="1" cy="285635"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvPr id="216" name="フローチャート : 手操作入力 51"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2586,12 +2516,12 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="217" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6120079" y="3994497"/>
+            <a:off x="4501906" y="952788"/>
             <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
@@ -2729,7 +2659,27 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>コメント表示</a:t>
+              <a:t>「コメント」を</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>表示</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -2743,12 +2693,12 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="218" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2401411" y="4779923"/>
+            <a:off x="4488776" y="4039073"/>
             <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
@@ -2891,738 +2841,14 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="グループ化 41"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2357941" y="3905247"/>
-            <a:ext cx="1343731" cy="589041"/>
-            <a:chOff x="0" y="2866734"/>
-            <a:chExt cx="1367117" cy="571501"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="65" name="ひし形 64"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="2866734"/>
-              <a:ext cx="1367117" cy="571501"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="66" name="テキスト ボックス 35"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="62345" y="2967587"/>
-              <a:ext cx="1229363" cy="392415"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>アイコン選択している</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="39" idx="2"/>
-            <a:endCxn id="65" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3029807" y="3619612"/>
-            <a:ext cx="410" cy="285635"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="36" idx="2"/>
-            <a:endCxn id="39" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3030217" y="2906800"/>
-            <a:ext cx="409" cy="328353"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="65" idx="2"/>
-            <a:endCxn id="41" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3023386" y="4494288"/>
-            <a:ext cx="6421" cy="285635"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="65" idx="3"/>
-            <a:endCxn id="40" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3701672" y="4199768"/>
-            <a:ext cx="2418407" cy="10899"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="テキスト ボックス 49"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3052022" y="4494288"/>
-            <a:ext cx="317203" cy="230832"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>No</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="テキスト ボックス 47"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3762951" y="3955191"/>
-            <a:ext cx="363689" cy="242374"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Yes</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvPr id="219" name="フローチャート : 手操作入力 51"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8622244" y="3986178"/>
+            <a:off x="8725162" y="1038513"/>
             <a:ext cx="1244767" cy="427177"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartManualInput">
@@ -3774,12 +3000,12 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="220" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8623062" y="4695902"/>
+            <a:off x="8725162" y="1756486"/>
             <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
@@ -3951,12 +3177,542 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="221" name="フローチャート : 磁気ディスク 1"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8623062" y="5410788"/>
+            <a:off x="600475" y="2476136"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>店名管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6295009" y="952787"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメント管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="223" name="直線矢印コネクタ 222"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="213" idx="2"/>
+            <a:endCxn id="214" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3030627" y="1470852"/>
+            <a:ext cx="0" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="214" idx="2"/>
+            <a:endCxn id="215" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3030626" y="2188826"/>
+            <a:ext cx="1" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="225" name="直線矢印コネクタ 224"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="215" idx="2"/>
+            <a:endCxn id="216" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3030217" y="2906800"/>
+            <a:ext cx="409" cy="328353"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="226" name="直線矢印コネクタ 225"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1872047" y="2799101"/>
+            <a:ext cx="547173" cy="7075"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="227" name="直線矢印コネクタ 226"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1860661" y="2584606"/>
+            <a:ext cx="547173" cy="7075"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="228" name="直線矢印コネクタ 227"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="219" idx="2"/>
+            <a:endCxn id="220" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9347137" y="1465690"/>
+            <a:ext cx="409" cy="290796"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="229" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4501905" y="1670761"/>
             <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
@@ -4094,7 +3850,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>食べログを表示</a:t>
+              <a:t>名前，コメント欄に入力</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -4106,122 +3862,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="40" idx="3"/>
-            <a:endCxn id="51" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="7364028" y="4199767"/>
-            <a:ext cx="1258216" cy="10900"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="51" idx="2"/>
-            <a:endCxn id="52" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9244628" y="4413355"/>
-            <a:ext cx="409" cy="282547"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="52" idx="2"/>
-            <a:endCxn id="57" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9245037" y="5128241"/>
-            <a:ext cx="0" cy="282547"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvPr id="230" name="フローチャート : 手操作入力 51"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3876751" y="2466179"/>
-            <a:ext cx="1261003" cy="443139"/>
+            <a:off x="4501068" y="2388736"/>
+            <a:ext cx="1244767" cy="427177"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartMagneticDisk">
+          <a:prstGeom prst="flowChartManualInput">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
@@ -4250,7 +3901,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="ja-JP"/>
@@ -4356,32 +4007,49 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>店名管理</a:t>
+              <a:t>「投稿する」ボタンを</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>テーブル</a:t>
+              <a:t>押下</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvPr id="231" name="フローチャート : 手操作入力 51"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6120079" y="4779923"/>
-            <a:ext cx="1261003" cy="443139"/>
+            <a:off x="4487958" y="3320298"/>
+            <a:ext cx="1244767" cy="427177"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartMagneticDisk">
+          <a:prstGeom prst="flowChartManualInput">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
@@ -4410,7 +4078,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="ja-JP"/>
@@ -4516,36 +4184,385 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>コメント管理</a:t>
+              <a:t>「コメント」以外の場所を押下</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>テーブル</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+          <xdr:cNvPr id="232" name="直線矢印コネクタ 231"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="36" idx="3"/>
-            <a:endCxn id="61" idx="2"/>
+            <a:stCxn id="231" idx="2"/>
+            <a:endCxn id="218" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5110342" y="3747475"/>
+            <a:ext cx="409" cy="291598"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="233" name="直線矢印コネクタ 232"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="217" idx="2"/>
+            <a:endCxn id="229" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5123880" y="1385127"/>
+            <a:ext cx="1" cy="285634"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="234" name="直線矢印コネクタ 233"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="229" idx="2"/>
+            <a:endCxn id="230" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5123452" y="2103100"/>
+            <a:ext cx="428" cy="328354"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="235" name="カギ線コネクタ 234"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="231" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3801444" y="2211877"/>
+            <a:ext cx="2008525" cy="635495"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -508"/>
+              <a:gd name="adj2" fmla="val 135972"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="236" name="カギ線コネクタ 235"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="216" idx="3"/>
+            <a:endCxn id="217" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="3652600" y="2687749"/>
-            <a:ext cx="224151" cy="2882"/>
+            <a:off x="3652600" y="1168958"/>
+            <a:ext cx="849306" cy="2237066"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="237" name="カギ線コネクタ 236"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="217" idx="0"/>
+            <a:endCxn id="219" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7171491" y="-1094823"/>
+            <a:ext cx="128443" cy="4223665"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -177978"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="238" name="直線矢印コネクタ 237"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5745855" y="1066860"/>
+            <a:ext cx="549154" cy="5399"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="239" name="直線矢印コネクタ 238"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5732725" y="1292058"/>
+            <a:ext cx="549154" cy="5399"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="240" name="カギ線コネクタ 239"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="230" idx="3"/>
+            <a:endCxn id="222" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5745835" y="1395926"/>
+            <a:ext cx="1179676" cy="1206399"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271843</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121379</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8594912" y="1423147"/>
+          <a:ext cx="1045049" cy="1914320"/>
+          <a:chOff x="7070252" y="1815914"/>
+          <a:chExt cx="1045049" cy="1914320"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="6630854" y="2255312"/>
+            <a:ext cx="1914320" cy="1035523"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 99757"/>
+            </a:avLst>
           </a:prstGeom>
           <a:ln>
             <a:tailEnd type="triangle"/>
@@ -4568,23 +4585,17 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="40" idx="2"/>
-            <a:endCxn id="62" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6742054" y="4426836"/>
-            <a:ext cx="8527" cy="353087"/>
+          <a:xfrm flipH="1">
+            <a:off x="7077076" y="3696616"/>
+            <a:ext cx="1038225" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
+          <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
@@ -4998,9 +5009,7 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:M17"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5013,7 +5022,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -5031,10 +5040,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="74">
         <v>41810</v>
       </c>
-      <c r="Q1" s="65"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5051,11 +5060,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5100,17 +5109,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5121,15 +5130,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5140,15 +5149,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5196,19 +5205,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5217,17 +5226,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5236,17 +5245,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5256,17 +5265,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5277,15 +5286,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5296,15 +5305,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5315,15 +5324,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5334,15 +5343,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5373,15 +5382,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5394,13 +5403,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5413,13 +5422,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5432,13 +5441,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5451,13 +5460,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5470,13 +5479,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5489,13 +5498,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5549,16 +5558,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5570,22 +5579,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62" t="s">
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62" t="s">
+      <c r="N29" s="68"/>
+      <c r="O29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="63"/>
+      <c r="P29" s="73"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5597,16 +5606,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="77" t="s">
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="78"/>
+      <c r="P30" s="63"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5618,14 +5627,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5637,14 +5646,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5656,14 +5665,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5675,14 +5684,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5694,14 +5703,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5725,12 +5734,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -5740,10 +5743,16 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -5757,8 +5766,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5767,7 +5776,9 @@
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -5775,36 +5786,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="19">
         <v>41810</v>
@@ -5873,62 +5884,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="74">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="59">
         <v>1</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="74" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6513,17 +6524,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6542,8 +6553,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6562,37 +6573,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P1" s="19">
         <v>41810</v>
@@ -6620,7 +6631,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>13</v>
@@ -6681,10 +6692,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -6704,23 +6715,23 @@
       <c r="B8" s="16"/>
       <c r="C8" s="21"/>
       <c r="D8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="G8" s="51" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="51" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="51" t="s">
         <v>43</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>44</v>
       </c>
       <c r="K8" s="52" t="s">
         <v>12</v>
@@ -6739,21 +6750,21 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="I9" s="25">
         <v>8</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
@@ -6770,15 +6781,15 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>51</v>
       </c>
       <c r="I10" s="25">
         <v>8</v>
@@ -6799,15 +6810,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="25">
         <v>8</v>
@@ -6828,18 +6839,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>57</v>
-      </c>
       <c r="I12" s="25">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="96"/>
@@ -6857,18 +6868,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="25" t="s">
+      <c r="H13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>60</v>
-      </c>
       <c r="I13" s="25">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="96"/>
@@ -6883,8 +6894,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -6900,10 +6911,10 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -6923,23 +6934,23 @@
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
       <c r="D16" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="52" t="s">
         <v>12</v>
@@ -6957,21 +6968,21 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="95"/>
+      <c r="G17" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="I17" s="25">
         <v>8</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="96"/>
       <c r="L17" s="96"/>
@@ -6987,15 +6998,15 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="I18" s="25">
         <v>20</v>
@@ -7015,18 +7026,18 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="101"/>
+      <c r="G19" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="57" t="s">
-        <v>73</v>
-      </c>
       <c r="H19" s="25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I19" s="57">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="96"/>
@@ -7043,15 +7054,15 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="99"/>
+      <c r="E20" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="95"/>
       <c r="G20" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" s="25">
         <v>8</v>
@@ -7408,30 +7419,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="K20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7439,5 +7450,6 @@
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_詳細" sheetId="14" r:id="rId1"/>
@@ -1302,6 +1302,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,50 +1377,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,35 +1410,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1622,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10163737" y="3955677"/>
+          <a:off x="10242178" y="3955677"/>
           <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
@@ -1850,678 +1850,2697 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>460777</xdr:colOff>
+      <xdr:colOff>460778</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>156861</xdr:rowOff>
+      <xdr:rowOff>22389</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="212" name="グループ化 211"/>
+        <xdr:cNvPr id="107" name="グループ化 106"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="291352" y="1871383"/>
-          <a:ext cx="9369454" cy="3518625"/>
-          <a:chOff x="600475" y="952787"/>
-          <a:chExt cx="9369454" cy="3518625"/>
+          <a:off x="291353" y="1736912"/>
+          <a:ext cx="9447896" cy="3518624"/>
+          <a:chOff x="600475" y="952788"/>
+          <a:chExt cx="9369454" cy="3518624"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="108" name="グループ化 107"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2408652" y="1038513"/>
-            <a:ext cx="1243949" cy="432339"/>
+            <a:off x="600475" y="952788"/>
+            <a:ext cx="9369454" cy="3518624"/>
+            <a:chOff x="600475" y="952788"/>
+            <a:chExt cx="9369454" cy="3518624"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2408652" y="1038513"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>システムへ</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>システムへ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>アクセス</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>アクセス</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2408652" y="1756487"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2408652" y="1756487"/>
-            <a:ext cx="1243949" cy="432339"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>グーグルマップを使用</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>グーグルマップを使用</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2408651" y="2474461"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2408651" y="2474461"/>
-            <a:ext cx="1243949" cy="432339"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ラーメン屋の店名とピンを表示</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="114" name="フローチャート : 手操作入力 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2407833" y="3192435"/>
+              <a:ext cx="1244767" cy="427177"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartManualInput">
+              <a:avLst/>
+            </a:prstGeom>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>店名アイコン選択</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ラーメン屋の店名とピンを表示</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="フローチャート : 手操作入力 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2407833" y="3192435"/>
-            <a:ext cx="1244767" cy="427177"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualInput">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="115" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4501906" y="952788"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>「コメント」を</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>店名アイコン選択</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>表示</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="116" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4488776" y="4039073"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>マップに戻る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="117" name="フローチャート : 手操作入力 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8725162" y="1038513"/>
+              <a:ext cx="1244767" cy="427177"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartManualInput">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>リンクを押下</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8725162" y="1756486"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>別ウィンドウを</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>表示</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="119" name="フローチャート : 磁気ディスク 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600475" y="2476136"/>
+              <a:ext cx="1261003" cy="443139"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartMagneticDisk">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>店名管理</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>テーブル</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="120" name="フローチャート : 磁気ディスク 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5837809" y="1489921"/>
+              <a:ext cx="1261003" cy="443139"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartMagneticDisk">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>コメント管理</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>テーブル</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="111" idx="2"/>
+              <a:endCxn id="112" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3030627" y="1470852"/>
+              <a:ext cx="0" cy="285635"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="122" name="直線矢印コネクタ 121"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="112" idx="2"/>
+              <a:endCxn id="113" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3030626" y="2188826"/>
+              <a:ext cx="1" cy="285635"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="113" idx="2"/>
+              <a:endCxn id="114" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3030217" y="2906800"/>
+              <a:ext cx="409" cy="328353"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="1872047" y="2799101"/>
+              <a:ext cx="547173" cy="7075"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="1860661" y="2584606"/>
+              <a:ext cx="547173" cy="7075"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="126" name="直線矢印コネクタ 125"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="117" idx="2"/>
+              <a:endCxn id="118" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="9347137" y="1465690"/>
+              <a:ext cx="409" cy="290796"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="127" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4501905" y="1670761"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>名前，コメント欄に入力</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128" name="フローチャート : 手操作入力 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4501068" y="2388736"/>
+              <a:ext cx="1244767" cy="427177"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartManualInput">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>「投稿する」ボタンを</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>押下</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="129" name="フローチャート : 手操作入力 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4487958" y="3320298"/>
+              <a:ext cx="1244767" cy="427177"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartManualInput">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>「コメント」以外の場所を押下</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="129" idx="2"/>
+              <a:endCxn id="116" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5110342" y="3747475"/>
+              <a:ext cx="409" cy="291598"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="115" idx="2"/>
+              <a:endCxn id="127" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5123880" y="1385127"/>
+              <a:ext cx="1" cy="285634"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="127" idx="2"/>
+              <a:endCxn id="128" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5123452" y="2103100"/>
+              <a:ext cx="428" cy="328354"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="129" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="3801444" y="2211877"/>
+              <a:ext cx="2008525" cy="635495"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector4">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -508"/>
+                <a:gd name="adj2" fmla="val 135972"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="114" idx="3"/>
+              <a:endCxn id="115" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="3652600" y="1168958"/>
+              <a:ext cx="849306" cy="2237066"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="115" idx="0"/>
+              <a:endCxn id="117" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipH="1">
+              <a:off x="7171491" y="-1094823"/>
+              <a:ext cx="128443" cy="4223665"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -177978"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="136" name="直線矢印コネクタ 143"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="120" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5745855" y="1066860"/>
+              <a:ext cx="722456" cy="423061"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector2">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="137" name="直線矢印コネクタ 144"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="5732725" y="1292060"/>
+              <a:ext cx="506150" cy="178792"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -921"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="138" name="カギ線コネクタ 137"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="128" idx="3"/>
+              <a:endCxn id="120" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="5745835" y="1933060"/>
+              <a:ext cx="722476" cy="669265"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector2">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="109" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4501906" y="952788"/>
+            <a:off x="5837809" y="2848363"/>
             <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
@@ -2679,1512 +4698,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>表示</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4488776" y="4039073"/>
-            <a:ext cx="1243949" cy="432339"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>マップに戻る</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="フローチャート : 手操作入力 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8725162" y="1038513"/>
-            <a:ext cx="1244767" cy="427177"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualInput">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>リンクを押下</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8725162" y="1756486"/>
-            <a:ext cx="1243949" cy="432339"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>別ウィンドウを</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>表示</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="フローチャート : 磁気ディスク 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="600475" y="2476136"/>
-            <a:ext cx="1261003" cy="443139"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartMagneticDisk">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>店名管理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>テーブル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="フローチャート : 磁気ディスク 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6295009" y="952787"/>
-            <a:ext cx="1261003" cy="443139"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartMagneticDisk">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>コメント管理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>テーブル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="223" name="直線矢印コネクタ 222"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="213" idx="2"/>
-            <a:endCxn id="214" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3030627" y="1470852"/>
-            <a:ext cx="0" cy="285635"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="214" idx="2"/>
-            <a:endCxn id="215" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3030626" y="2188826"/>
-            <a:ext cx="1" cy="285635"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="225" name="直線矢印コネクタ 224"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="215" idx="2"/>
-            <a:endCxn id="216" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3030217" y="2906800"/>
-            <a:ext cx="409" cy="328353"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="226" name="直線矢印コネクタ 225"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1872047" y="2799101"/>
-            <a:ext cx="547173" cy="7075"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="227" name="直線矢印コネクタ 226"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="1860661" y="2584606"/>
-            <a:ext cx="547173" cy="7075"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="228" name="直線矢印コネクタ 227"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="219" idx="2"/>
-            <a:endCxn id="220" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="9347137" y="1465690"/>
-            <a:ext cx="409" cy="290796"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="229" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4501905" y="1670761"/>
-            <a:ext cx="1243949" cy="432339"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>名前，コメント欄に入力</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="230" name="フローチャート : 手操作入力 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4501068" y="2388736"/>
-            <a:ext cx="1244767" cy="427177"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualInput">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>「投稿する」ボタンを</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>押下</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="231" name="フローチャート : 手操作入力 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4487958" y="3320298"/>
-            <a:ext cx="1244767" cy="427177"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualInput">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>「コメント」以外の場所を押下</a:t>
+              <a:t>更新し表示</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
@@ -4198,300 +4712,16 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="232" name="直線矢印コネクタ 231"/>
+          <xdr:cNvPr id="110" name="カギ線コネクタ 109"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="231" idx="2"/>
-            <a:endCxn id="218" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5110342" y="3747475"/>
-            <a:ext cx="409" cy="291598"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="233" name="直線矢印コネクタ 232"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="217" idx="2"/>
-            <a:endCxn id="229" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="5123880" y="1385127"/>
-            <a:ext cx="1" cy="285634"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="234" name="直線矢印コネクタ 233"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="229" idx="2"/>
-            <a:endCxn id="230" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="5123452" y="2103100"/>
-            <a:ext cx="428" cy="328354"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="235" name="カギ線コネクタ 234"/>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="231" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="3801444" y="2211877"/>
-            <a:ext cx="2008525" cy="635495"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector4">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -508"/>
-              <a:gd name="adj2" fmla="val 135972"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="236" name="カギ線コネクタ 235"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="216" idx="3"/>
-            <a:endCxn id="217" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3652600" y="1168958"/>
-            <a:ext cx="849306" cy="2237066"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="237" name="カギ線コネクタ 236"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="217" idx="0"/>
-            <a:endCxn id="219" idx="0"/>
+            <a:stCxn id="128" idx="2"/>
+            <a:endCxn id="109" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000" flipH="1">
-            <a:off x="7171491" y="-1094823"/>
-            <a:ext cx="128443" cy="4223665"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -177978"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="238" name="直線矢印コネクタ 237"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5745855" y="1066860"/>
-            <a:ext cx="549154" cy="5399"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="239" name="直線矢印コネクタ 238"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="5732725" y="1292058"/>
-            <a:ext cx="549154" cy="5399"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="240" name="カギ線コネクタ 239"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="230" idx="3"/>
-            <a:endCxn id="222" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5745835" y="1395926"/>
-            <a:ext cx="1179676" cy="1206399"/>
+            <a:off x="5356320" y="2583044"/>
+            <a:ext cx="248620" cy="714357"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -4543,8 +4773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8594912" y="1423147"/>
-          <a:ext cx="1045049" cy="1914320"/>
+          <a:off x="7865832" y="1311385"/>
+          <a:ext cx="954990" cy="1769936"/>
           <a:chOff x="7070252" y="1815914"/>
           <a:chExt cx="1045049" cy="1914320"/>
         </a:xfrm>
@@ -5040,10 +5270,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="74">
+      <c r="P1" s="64">
         <v>41810</v>
       </c>
-      <c r="Q1" s="75"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5060,11 +5290,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5109,17 +5339,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5130,15 +5360,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5149,15 +5379,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5205,19 +5435,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5226,17 +5456,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5245,17 +5475,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5265,17 +5495,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5286,15 +5516,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5305,15 +5535,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5324,15 +5554,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5343,15 +5573,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5382,15 +5612,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5403,13 +5633,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5422,13 +5652,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5441,13 +5671,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5460,13 +5690,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5479,13 +5709,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5498,13 +5728,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5558,16 +5788,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5579,22 +5809,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68" t="s">
+      <c r="L29" s="62"/>
+      <c r="M29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68" t="s">
+      <c r="N29" s="62"/>
+      <c r="O29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="73"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5606,16 +5836,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="62" t="s">
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="63"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5627,14 +5857,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="65"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5646,14 +5876,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="65"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5665,14 +5895,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="65"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5684,14 +5914,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5703,14 +5933,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5734,6 +5964,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -5743,12 +5979,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5766,19 +5996,21 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -5786,25 +6018,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5884,62 +6116,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="59">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6524,17 +6756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6553,7 +6785,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -6573,26 +6805,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
@@ -6717,10 +6949,10 @@
       <c r="D8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="51" t="s">
         <v>41</v>
       </c>
@@ -6750,10 +6982,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
@@ -6781,10 +7013,10 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
@@ -6810,10 +7042,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="25" t="s">
         <v>52</v>
       </c>
@@ -6839,10 +7071,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="25" t="s">
         <v>55</v>
       </c>
@@ -6868,10 +7100,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="25" t="s">
         <v>58</v>
       </c>
@@ -6894,8 +7126,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -6936,10 +7168,10 @@
       <c r="D16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="51" t="s">
         <v>41</v>
       </c>
@@ -6968,10 +7200,10 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="25" t="s">
         <v>65</v>
       </c>
@@ -6998,10 +7230,10 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="25" t="s">
         <v>69</v>
       </c>
@@ -7026,10 +7258,10 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="101"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="57" t="s">
         <v>72</v>
       </c>
@@ -7054,10 +7286,10 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="25" t="s">
         <v>73</v>
       </c>
@@ -7419,30 +7651,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\C藩の内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
       <t>イド</t>
@@ -520,10 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>店名</t>
     <rPh sb="0" eb="2">
       <t>テンメイ</t>
@@ -652,6 +644,14 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flout</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1302,6 +1302,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,9 +1347,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,67 +1377,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,23 +1428,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,691 +1850,2714 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>460778</xdr:colOff>
+      <xdr:colOff>438366</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>22389</xdr:rowOff>
+      <xdr:rowOff>11183</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="107" name="グループ化 106"/>
+        <xdr:cNvPr id="48" name="グループ化 47"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="291353" y="1736912"/>
-          <a:ext cx="9447896" cy="3518624"/>
-          <a:chOff x="600475" y="952788"/>
+          <a:off x="347383" y="1725706"/>
+          <a:ext cx="9369454" cy="3518624"/>
+          <a:chOff x="914800" y="876588"/>
           <a:chExt cx="9369454" cy="3518624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="108" name="グループ化 107"/>
+          <xdr:cNvPr id="49" name="グループ化 48"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="600475" y="952788"/>
+            <a:off x="914800" y="876588"/>
             <a:ext cx="9369454" cy="3518624"/>
             <a:chOff x="600475" y="952788"/>
             <a:chExt cx="9369454" cy="3518624"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="52" name="グループ化 51"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2408652" y="1038513"/>
-              <a:ext cx="1243949" cy="432339"/>
+              <a:off x="600475" y="952788"/>
+              <a:ext cx="9369454" cy="3518624"/>
+              <a:chOff x="600475" y="952788"/>
+              <a:chExt cx="9369454" cy="3518624"/>
             </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="59" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2408652" y="1038513"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>システムへ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>システムへ</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>アクセス</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>アクセス</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="60" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2408652" y="1756487"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="112" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2408652" y="1756487"/>
-              <a:ext cx="1243949" cy="432339"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>グーグルマップを使用</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>グーグルマップを使用</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="61" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2408651" y="2474461"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="113" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2408651" y="2474461"/>
-              <a:ext cx="1243949" cy="432339"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>ラーメン屋の店名とピンを表示</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="62" name="フローチャート : 手操作入力 51"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2407833" y="3192435"/>
+                <a:ext cx="1244767" cy="427177"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartManualInput">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>店名アイコン選択</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>ラーメン屋の店名とピンを表示</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="114" name="フローチャート : 手操作入力 51"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2407833" y="3192435"/>
-              <a:ext cx="1244767" cy="427177"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualInput">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="63" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4501906" y="952788"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>「コメント」を</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>店名アイコン選択</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>表示</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="64" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4488776" y="4039073"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>マップに戻る</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="65" name="フローチャート : 手操作入力 51"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8725162" y="1038513"/>
+                <a:ext cx="1244767" cy="427177"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartManualInput">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>リンクを押下</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="66" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8725162" y="1756486"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>別ウィンドウを</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>表示</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="67" name="フローチャート : 磁気ディスク 1"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="600475" y="2476136"/>
+                <a:ext cx="1261003" cy="443139"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartMagneticDisk">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>店名管理</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>テーブル</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="68" name="フローチャート : 磁気ディスク 1"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5837809" y="1489921"/>
+                <a:ext cx="1261003" cy="443139"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartMagneticDisk">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>コメント管理</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>テーブル</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="59" idx="2"/>
+                <a:endCxn id="60" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3030627" y="1470852"/>
+                <a:ext cx="0" cy="285635"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="60" idx="2"/>
+                <a:endCxn id="61" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="3030626" y="2188826"/>
+                <a:ext cx="1" cy="285635"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="61" idx="2"/>
+                <a:endCxn id="62" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="3030217" y="2906800"/>
+                <a:ext cx="409" cy="328353"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="67" idx="4"/>
+                <a:endCxn id="61" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="1861478" y="2690631"/>
+                <a:ext cx="547173" cy="7075"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="1860661" y="2584606"/>
+                <a:ext cx="547173" cy="7075"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="65" idx="2"/>
+                <a:endCxn id="66" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="9347137" y="1465690"/>
+                <a:ext cx="409" cy="290796"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="75" name="フローチャート : 定義済み処理 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4501905" y="1670761"/>
+                <a:ext cx="1243949" cy="432339"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartPredefinedProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>名前，コメント欄に入力</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="76" name="フローチャート : 手操作入力 51"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4501068" y="2388736"/>
+                <a:ext cx="1244767" cy="427177"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartManualInput">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>「投稿する」ボタンを</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>押下</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="77" name="フローチャート : 手操作入力 51"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4487958" y="3320298"/>
+                <a:ext cx="1244767" cy="427177"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartManualInput">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>「コメント」以外の場所を押下</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="77" idx="2"/>
+                <a:endCxn id="64" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5110342" y="3747475"/>
+                <a:ext cx="409" cy="291598"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="63" idx="2"/>
+                <a:endCxn id="75" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="5123880" y="1385127"/>
+                <a:ext cx="1" cy="285634"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="75" idx="2"/>
+                <a:endCxn id="76" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="5123452" y="2103100"/>
+                <a:ext cx="428" cy="328354"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="81" name="カギ線コネクタ 80"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="77" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="5400000">
+                <a:off x="3801444" y="2211877"/>
+                <a:ext cx="2008525" cy="635495"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector4">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 44683"/>
+                  <a:gd name="adj2" fmla="val 135972"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="62" idx="3"/>
+                <a:endCxn id="63" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="3652600" y="1168958"/>
+                <a:ext cx="849306" cy="2237066"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector3">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 50000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="83" name="カギ線コネクタ 82"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="63" idx="0"/>
+                <a:endCxn id="65" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000" flipH="1">
+                <a:off x="7171491" y="-1094823"/>
+                <a:ext cx="128443" cy="4223665"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector3">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val -177978"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="84" name="直線矢印コネクタ 143"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="63" idx="3"/>
+                <a:endCxn id="68" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5745855" y="1168958"/>
+                <a:ext cx="722456" cy="320963"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector2">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="85" name="直線矢印コネクタ 144"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="5732725" y="1292060"/>
+                <a:ext cx="506150" cy="178792"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector3">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 50000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:ln>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="86" name="カギ線コネクタ 85"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="76" idx="3"/>
+                <a:endCxn id="68" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="5745835" y="1933060"/>
+                <a:ext cx="722476" cy="669265"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector2">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="115" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4501906" y="952788"/>
+              <a:off x="5837809" y="2848363"/>
               <a:ext cx="1243949" cy="432339"/>
             </a:xfrm>
             <a:prstGeom prst="flowChartPredefinedProcess">
@@ -2692,1512 +4715,7 @@
                   <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>表示</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4488776" y="4039073"/>
-              <a:ext cx="1243949" cy="432339"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>マップに戻る</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="117" name="フローチャート : 手操作入力 51"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8725162" y="1038513"/>
-              <a:ext cx="1244767" cy="427177"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualInput">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>リンクを押下</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="118" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8725162" y="1756486"/>
-              <a:ext cx="1243949" cy="432339"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>別ウィンドウを</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>表示</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="119" name="フローチャート : 磁気ディスク 1"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="600475" y="2476136"/>
-              <a:ext cx="1261003" cy="443139"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartMagneticDisk">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>店名管理</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>テーブル</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="120" name="フローチャート : 磁気ディスク 1"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5837809" y="1489921"/>
-              <a:ext cx="1261003" cy="443139"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartMagneticDisk">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>コメント管理</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>テーブル</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="111" idx="2"/>
-              <a:endCxn id="112" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3030627" y="1470852"/>
-              <a:ext cx="0" cy="285635"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="122" name="直線矢印コネクタ 121"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="112" idx="2"/>
-              <a:endCxn id="113" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="3030626" y="2188826"/>
-              <a:ext cx="1" cy="285635"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="113" idx="2"/>
-              <a:endCxn id="114" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="3030217" y="2906800"/>
-              <a:ext cx="409" cy="328353"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="1872047" y="2799101"/>
-              <a:ext cx="547173" cy="7075"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1860661" y="2584606"/>
-              <a:ext cx="547173" cy="7075"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="126" name="直線矢印コネクタ 125"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="117" idx="2"/>
-              <a:endCxn id="118" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="9347137" y="1465690"/>
-              <a:ext cx="409" cy="290796"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="127" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4501905" y="1670761"/>
-              <a:ext cx="1243949" cy="432339"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>名前，コメント欄に入力</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="128" name="フローチャート : 手操作入力 51"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4501068" y="2388736"/>
-              <a:ext cx="1244767" cy="427177"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualInput">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>「投稿する」ボタンを</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>押下</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="フローチャート : 手操作入力 51"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4487958" y="3320298"/>
-              <a:ext cx="1244767" cy="427177"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualInput">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>「コメント」以外の場所を押下</a:t>
+                <a:t>更新し表示</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
@@ -4211,304 +4729,16 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+            <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="129" idx="2"/>
-              <a:endCxn id="116" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5110342" y="3747475"/>
-              <a:ext cx="409" cy="291598"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="115" idx="2"/>
-              <a:endCxn id="127" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="5123880" y="1385127"/>
-              <a:ext cx="1" cy="285634"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="127" idx="2"/>
-              <a:endCxn id="128" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="5123452" y="2103100"/>
-              <a:ext cx="428" cy="328354"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
-            <xdr:cNvCxnSpPr>
-              <a:endCxn id="129" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="5400000">
-              <a:off x="3801444" y="2211877"/>
-              <a:ext cx="2008525" cy="635495"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector4">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -508"/>
-                <a:gd name="adj2" fmla="val 135972"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="114" idx="3"/>
-              <a:endCxn id="115" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="3652600" y="1168958"/>
-              <a:ext cx="849306" cy="2237066"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector3">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="115" idx="0"/>
-              <a:endCxn id="117" idx="0"/>
+              <a:stCxn id="76" idx="2"/>
+              <a:endCxn id="57" idx="1"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000" flipH="1">
-              <a:off x="7171491" y="-1094823"/>
-              <a:ext cx="128443" cy="4223665"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector3">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -177978"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="136" name="直線矢印コネクタ 143"/>
-            <xdr:cNvCxnSpPr>
-              <a:endCxn id="120" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5745855" y="1066860"/>
-              <a:ext cx="722456" cy="423061"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector2">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="137" name="直線矢印コネクタ 144"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="5732725" y="1292060"/>
-              <a:ext cx="506150" cy="178792"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector3">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -921"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="138" name="カギ線コネクタ 137"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="128" idx="3"/>
-              <a:endCxn id="120" idx="3"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="5745835" y="1933060"/>
-              <a:ext cx="722476" cy="669265"/>
+              <a:off x="5356320" y="2583044"/>
+              <a:ext cx="248620" cy="714357"/>
             </a:xfrm>
             <a:prstGeom prst="bentConnector2">
               <a:avLst/>
@@ -4533,198 +4763,23 @@
           </xdr:style>
         </xdr:cxnSp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5837809" y="2848363"/>
-            <a:ext cx="1243949" cy="432339"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>「コメント」を</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>更新し表示</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="110" name="カギ線コネクタ 109"/>
+          <xdr:cNvPr id="50" name="カギ線コネクタ 49"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="128" idx="2"/>
-            <a:endCxn id="109" idx="1"/>
+            <a:stCxn id="57" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="16200000" flipH="1">
-            <a:off x="5356320" y="2583044"/>
-            <a:ext cx="248620" cy="714357"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6060161" y="962313"/>
+            <a:ext cx="1335922" cy="2026020"/>
           </a:xfrm>
-          <a:prstGeom prst="bentConnector2">
-            <a:avLst/>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -6207"/>
+              <a:gd name="adj2" fmla="val 100136"/>
+            </a:avLst>
           </a:prstGeom>
           <a:ln>
             <a:tailEnd type="arrow"/>
@@ -4739,6 +4794,45 @@
           </a:fillRef>
           <a:effectRef idx="0">
             <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="64" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2736109" y="2739715"/>
+            <a:ext cx="2066993" cy="1439329"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 117225"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -4773,8 +4867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7865832" y="1311385"/>
-          <a:ext cx="954990" cy="1769936"/>
+          <a:off x="8594912" y="1423147"/>
+          <a:ext cx="1045049" cy="1914320"/>
           <a:chOff x="7070252" y="1815914"/>
           <a:chExt cx="1045049" cy="1914320"/>
         </a:xfrm>
@@ -5252,7 +5346,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -5270,10 +5364,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="74">
         <v>41810</v>
       </c>
-      <c r="Q1" s="65"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5290,11 +5384,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5339,17 +5433,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5360,15 +5454,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5379,15 +5473,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5435,19 +5529,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5456,17 +5550,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5475,17 +5569,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5495,17 +5589,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5516,15 +5610,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5535,15 +5629,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5554,15 +5648,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5573,15 +5667,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5612,15 +5706,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5633,13 +5727,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5652,13 +5746,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5671,13 +5765,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5690,13 +5784,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5709,13 +5803,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5728,13 +5822,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5788,16 +5882,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5809,22 +5903,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62" t="s">
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62" t="s">
+      <c r="N29" s="68"/>
+      <c r="O29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="63"/>
+      <c r="P29" s="73"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5836,16 +5930,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="77" t="s">
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="78"/>
+      <c r="P30" s="63"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5857,14 +5951,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5876,14 +5970,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5895,14 +5989,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5914,14 +6008,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5933,14 +6027,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5964,12 +6058,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -5979,6 +6067,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5997,7 +6091,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6018,30 +6112,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
@@ -6116,62 +6210,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="74">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="59">
         <v>1</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="74" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6756,17 +6850,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6786,7 +6880,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6805,37 +6899,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="19">
         <v>41810</v>
@@ -6949,10 +7043,10 @@
       <c r="D8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="51" t="s">
         <v>41</v>
       </c>
@@ -6982,10 +7076,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
@@ -7013,15 +7107,15 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I10" s="25">
         <v>8</v>
@@ -7042,15 +7136,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="25" t="s">
-        <v>52</v>
-      </c>
       <c r="H11" s="25" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I11" s="25">
         <v>8</v>
@@ -7071,15 +7165,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="I12" s="25">
         <v>500</v>
@@ -7100,15 +7194,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="I13" s="25">
         <v>500</v>
@@ -7126,8 +7220,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -7143,10 +7237,10 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -7166,12 +7260,12 @@
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
       <c r="D16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="51" t="s">
         <v>41</v>
       </c>
@@ -7179,7 +7273,7 @@
         <v>17</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="51" t="s">
         <v>43</v>
@@ -7200,21 +7294,21 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="95"/>
+      <c r="G17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>66</v>
       </c>
       <c r="I17" s="25">
         <v>8</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K17" s="96"/>
       <c r="L17" s="96"/>
@@ -7230,15 +7324,15 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="I18" s="25">
         <v>20</v>
@@ -7258,15 +7352,15 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="98"/>
+      <c r="E19" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="101"/>
       <c r="G19" s="57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="57">
         <v>140</v>
@@ -7286,15 +7380,15 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="25">
         <v>8</v>
@@ -7651,30 +7745,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="K20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\C藩の内部設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1302,6 +1302,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,50 +1377,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,35 +1410,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2528,7 +2528,7 @@
                     <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
-                  <a:t>店名アイコン選択</a:t>
+                  <a:t>店名アイコン押下</a:t>
                 </a:r>
                 <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                   <a:solidFill>
@@ -4347,7 +4347,7 @@
               </a:xfrm>
               <a:prstGeom prst="bentConnector4">
                 <a:avLst>
-                  <a:gd name="adj1" fmla="val 44683"/>
+                  <a:gd name="adj1" fmla="val -2740"/>
                   <a:gd name="adj2" fmla="val 135972"/>
                 </a:avLst>
               </a:prstGeom>
@@ -4491,7 +4491,7 @@
               </a:xfrm>
               <a:prstGeom prst="bentConnector3">
                 <a:avLst>
-                  <a:gd name="adj1" fmla="val 50000"/>
+                  <a:gd name="adj1" fmla="val -3135"/>
                 </a:avLst>
               </a:prstGeom>
               <a:ln>
@@ -5364,10 +5364,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="74">
+      <c r="P1" s="64">
         <v>41810</v>
       </c>
-      <c r="Q1" s="75"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5384,11 +5384,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5433,17 +5433,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5454,15 +5454,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5473,15 +5473,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5529,19 +5529,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5550,17 +5550,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5569,17 +5569,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5589,17 +5589,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5610,15 +5610,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5629,15 +5629,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5648,15 +5648,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5667,15 +5667,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5706,15 +5706,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5727,13 +5727,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5746,13 +5746,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5765,13 +5765,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5784,13 +5784,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5803,13 +5803,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5822,13 +5822,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5882,16 +5882,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5903,22 +5903,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68" t="s">
+      <c r="L29" s="62"/>
+      <c r="M29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68" t="s">
+      <c r="N29" s="62"/>
+      <c r="O29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="73"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5930,16 +5930,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="62" t="s">
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="63"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5951,14 +5951,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="65"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5970,14 +5970,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="65"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5989,14 +5989,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="65"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -6008,14 +6008,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6027,14 +6027,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6058,6 +6058,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -6067,12 +6073,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6091,7 +6091,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6112,25 +6112,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -6210,62 +6210,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="59">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6850,17 +6850,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6899,26 +6899,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
@@ -7043,10 +7043,10 @@
       <c r="D8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="51" t="s">
         <v>41</v>
       </c>
@@ -7076,10 +7076,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
@@ -7107,10 +7107,10 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
@@ -7136,10 +7136,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
@@ -7165,10 +7165,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="25" t="s">
         <v>53</v>
       </c>
@@ -7194,10 +7194,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="25" t="s">
         <v>56</v>
       </c>
@@ -7220,8 +7220,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -7262,10 +7262,10 @@
       <c r="D16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="51" t="s">
         <v>41</v>
       </c>
@@ -7294,10 +7294,10 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="25" t="s">
         <v>63</v>
       </c>
@@ -7324,10 +7324,10 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="25" t="s">
         <v>67</v>
       </c>
@@ -7352,10 +7352,10 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="101"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="57" t="s">
         <v>70</v>
       </c>
@@ -7380,10 +7380,10 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="25" t="s">
         <v>71</v>
       </c>
@@ -7745,30 +7745,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\C藩の内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_詳細" sheetId="14" r:id="rId1"/>
@@ -647,11 +647,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>flout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>flout</t>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6090,7 +6090,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -6879,8 +6879,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7118,7 +7118,7 @@
         <v>78</v>
       </c>
       <c r="I10" s="25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="96"/>
@@ -7147,7 +7147,7 @@
         <v>79</v>
       </c>
       <c r="I11" s="25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="96"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -1302,6 +1302,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,9 +1347,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,67 +1377,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,23 +1428,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5364,10 +5364,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="74">
         <v>41810</v>
       </c>
-      <c r="Q1" s="65"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5384,11 +5384,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5433,17 +5433,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5454,15 +5454,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5473,15 +5473,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5529,19 +5529,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5550,17 +5550,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5569,17 +5569,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5589,17 +5589,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5610,15 +5610,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5629,15 +5629,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5648,15 +5648,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5667,15 +5667,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5706,15 +5706,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5727,13 +5727,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5746,13 +5746,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5765,13 +5765,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5784,13 +5784,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5803,13 +5803,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5822,13 +5822,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5882,16 +5882,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5903,22 +5903,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62" t="s">
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62" t="s">
+      <c r="N29" s="68"/>
+      <c r="O29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="63"/>
+      <c r="P29" s="73"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5930,16 +5930,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="77" t="s">
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="78"/>
+      <c r="P30" s="63"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5951,14 +5951,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5970,14 +5970,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5989,14 +5989,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -6008,14 +6008,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6027,14 +6027,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6058,12 +6058,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -6073,6 +6067,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6112,25 +6112,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -6210,62 +6210,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="74">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="59">
         <v>1</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="74" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6850,17 +6850,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6880,7 +6880,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6899,26 +6899,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
@@ -7043,10 +7043,10 @@
       <c r="D8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="51" t="s">
         <v>41</v>
       </c>
@@ -7076,10 +7076,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
@@ -7107,10 +7107,10 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
@@ -7136,10 +7136,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
@@ -7165,10 +7165,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="99"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="25" t="s">
         <v>53</v>
       </c>
@@ -7194,10 +7194,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="25" t="s">
         <v>56</v>
       </c>
@@ -7220,8 +7220,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -7262,10 +7262,10 @@
       <c r="D16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="51" t="s">
         <v>41</v>
       </c>
@@ -7294,10 +7294,10 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="99"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="25" t="s">
         <v>63</v>
       </c>
@@ -7324,10 +7324,10 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="95"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="25" t="s">
         <v>67</v>
       </c>
@@ -7352,10 +7352,10 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="98"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="57" t="s">
         <v>70</v>
       </c>
@@ -7380,10 +7380,10 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="25" t="s">
         <v>71</v>
       </c>
@@ -7745,34 +7745,34 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="K20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -350,19 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>矢吹研A班</t>
-    <rPh sb="0" eb="2">
-      <t>ヤブキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>滞在管理システム</t>
     <rPh sb="0" eb="2">
       <t>タイザイ</t>
@@ -630,12 +617,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹本　篤郎様</t>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田隈　広紀様</t>
     <rPh sb="0" eb="2">
-      <t>タケモト</t>
+      <t>タグマ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>アツロウ</t>
+      <t>ヒロキ</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>サマ</t>
@@ -643,15 +642,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>float</t>
+    <t>矢吹研C班</t>
+    <rPh sb="0" eb="2">
+      <t>ヤブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1302,6 +1302,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,50 +1377,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,35 +1410,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5333,7 +5333,9 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5346,7 +5348,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -5364,10 +5366,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="74">
+      <c r="P1" s="64">
         <v>41810</v>
       </c>
-      <c r="Q1" s="75"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5384,11 +5386,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="O2" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5433,17 +5435,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5454,15 +5456,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5473,15 +5475,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5529,19 +5531,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="D10" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5550,17 +5552,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5569,17 +5571,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5589,17 +5591,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="E13" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5610,15 +5612,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5629,15 +5631,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5648,15 +5650,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5667,15 +5669,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5706,15 +5708,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5727,13 +5729,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5746,13 +5748,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5765,13 +5767,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5784,13 +5786,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5803,13 +5805,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5822,13 +5824,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5882,16 +5884,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5903,22 +5905,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68" t="s">
+      <c r="L29" s="62"/>
+      <c r="M29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68" t="s">
+      <c r="N29" s="62"/>
+      <c r="O29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="73"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5930,16 +5932,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="62" t="s">
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="63"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5951,14 +5953,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="65"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5970,14 +5972,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="65"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5989,14 +5991,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="65"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -6008,14 +6010,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6027,14 +6029,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6058,6 +6060,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -6067,12 +6075,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6112,36 +6114,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="19">
         <v>41810</v>
@@ -6210,62 +6212,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="59">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="I6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
+      <c r="M6" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="I7" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
+      <c r="M7" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6850,17 +6852,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6899,37 +6901,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="19">
         <v>41810</v>
@@ -6957,7 +6959,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>13</v>
@@ -7018,10 +7020,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -7041,23 +7043,23 @@
       <c r="B8" s="16"/>
       <c r="C8" s="21"/>
       <c r="D8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="51" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="51" t="s">
         <v>42</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>43</v>
       </c>
       <c r="K8" s="52" t="s">
         <v>12</v>
@@ -7076,21 +7078,21 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="I9" s="25">
         <v>8</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
@@ -7107,15 +7109,15 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25">
         <v>10</v>
@@ -7136,15 +7138,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="25" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="25">
         <v>10</v>
@@ -7165,15 +7167,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>54</v>
       </c>
       <c r="I12" s="25">
         <v>500</v>
@@ -7194,15 +7196,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="25" t="s">
+      <c r="H13" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="I13" s="25">
         <v>500</v>
@@ -7220,8 +7222,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -7237,10 +7239,10 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -7260,23 +7262,23 @@
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
       <c r="D16" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="52" t="s">
         <v>12</v>
@@ -7294,21 +7296,21 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="99"/>
+      <c r="G17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="I17" s="25">
         <v>8</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="96"/>
       <c r="L17" s="96"/>
@@ -7324,15 +7326,15 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="95"/>
+      <c r="G18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>68</v>
       </c>
       <c r="I18" s="25">
         <v>20</v>
@@ -7352,15 +7354,15 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="G19" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="57" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I19" s="57">
         <v>140</v>
@@ -7380,15 +7382,15 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="95"/>
+      <c r="E20" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="99"/>
       <c r="G20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="I20" s="25">
         <v>8</v>
@@ -7745,30 +7747,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/C藩の内部設計書/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\C藩の内部設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\C藩の内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_詳細" sheetId="14" r:id="rId1"/>
@@ -1302,6 +1302,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,50 +1377,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,35 +1410,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,8 +1622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10242178" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="10488708" y="3955677"/>
+          <a:ext cx="636494" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1849,2936 +1849,2065 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438366</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>11183</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597087</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110797</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="グループ化 47"/>
+        <xdr:cNvPr id="175" name="グループ化 174"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="347383" y="1725706"/>
-          <a:ext cx="9369454" cy="3518624"/>
-          <a:chOff x="914800" y="876588"/>
-          <a:chExt cx="9369454" cy="3518624"/>
+          <a:off x="1557618" y="1703294"/>
+          <a:ext cx="8026587" cy="3304474"/>
+          <a:chOff x="1354677" y="1327614"/>
+          <a:chExt cx="8026587" cy="3304474"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="49" name="グループ化 48"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="914800" y="876588"/>
-            <a:ext cx="9369454" cy="3518624"/>
-            <a:chOff x="600475" y="952788"/>
-            <a:chExt cx="9369454" cy="3518624"/>
+            <a:off x="1355496" y="1333015"/>
+            <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="52" name="グループ化 51"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="600475" y="952788"/>
-              <a:ext cx="9369454" cy="3518624"/>
-              <a:chOff x="600475" y="952788"/>
-              <a:chExt cx="9369454" cy="3518624"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="59" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2408652" y="1038513"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>システムへ</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>アクセス</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="60" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2408652" y="1756487"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>グーグルマップを使用</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="61" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2408651" y="2474461"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ラーメン屋の店名とピンを表示</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="62" name="フローチャート : 手操作入力 51"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2407833" y="3192435"/>
-                <a:ext cx="1244767" cy="427177"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartManualInput">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>店名アイコン押下</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="63" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4501906" y="952788"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>「コメント」を</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>表示</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="64" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4488776" y="4039073"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>マップに戻る</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="65" name="フローチャート : 手操作入力 51"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8725162" y="1038513"/>
-                <a:ext cx="1244767" cy="427177"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartManualInput">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>リンクを押下</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="66" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8725162" y="1756486"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>別ウィンドウを</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>表示</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="67" name="フローチャート : 磁気ディスク 1"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="600475" y="2476136"/>
-                <a:ext cx="1261003" cy="443139"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartMagneticDisk">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>店名管理</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>テーブル</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="68" name="フローチャート : 磁気ディスク 1"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5837809" y="1489921"/>
-                <a:ext cx="1261003" cy="443139"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartMagneticDisk">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>コメント管理</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>テーブル</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="59" idx="2"/>
-                <a:endCxn id="60" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3030627" y="1470852"/>
-                <a:ext cx="0" cy="285635"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="60" idx="2"/>
-                <a:endCxn id="61" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="3030626" y="2188826"/>
-                <a:ext cx="1" cy="285635"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="61" idx="2"/>
-                <a:endCxn id="62" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="3030217" y="2906800"/>
-                <a:ext cx="409" cy="328353"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="67" idx="4"/>
-                <a:endCxn id="61" idx="1"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="1861478" y="2690631"/>
-                <a:ext cx="547173" cy="7075"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="1860661" y="2584606"/>
-                <a:ext cx="547173" cy="7075"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="65" idx="2"/>
-                <a:endCxn id="66" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="9347137" y="1465690"/>
-                <a:ext cx="409" cy="290796"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="75" name="フローチャート : 定義済み処理 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4501905" y="1670761"/>
-                <a:ext cx="1243949" cy="432339"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>名前，コメント欄に入力</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="76" name="フローチャート : 手操作入力 51"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4501068" y="2388736"/>
-                <a:ext cx="1244767" cy="427177"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartManualInput">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>「投稿する」ボタンを</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>押下</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="77" name="フローチャート : 手操作入力 51"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4487958" y="3320298"/>
-                <a:ext cx="1244767" cy="427177"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartManualInput">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>「コメント」以外の場所を押下</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="77" idx="2"/>
-                <a:endCxn id="64" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5110342" y="3747475"/>
-                <a:ext cx="409" cy="291598"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="63" idx="2"/>
-                <a:endCxn id="75" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="5123880" y="1385127"/>
-                <a:ext cx="1" cy="285634"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="75" idx="2"/>
-                <a:endCxn id="76" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="5123452" y="2103100"/>
-                <a:ext cx="428" cy="328354"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="81" name="カギ線コネクタ 80"/>
-              <xdr:cNvCxnSpPr>
-                <a:endCxn id="77" idx="1"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="5400000">
-                <a:off x="3801444" y="2211877"/>
-                <a:ext cx="2008525" cy="635495"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector4">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val -2740"/>
-                  <a:gd name="adj2" fmla="val 135972"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="62" idx="3"/>
-                <a:endCxn id="63" idx="1"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="3652600" y="1168958"/>
-                <a:ext cx="849306" cy="2237066"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector3">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val 50000"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="83" name="カギ線コネクタ 82"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="63" idx="0"/>
-                <a:endCxn id="65" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="16200000" flipH="1">
-                <a:off x="7171491" y="-1094823"/>
-                <a:ext cx="128443" cy="4223665"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector3">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val -177978"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="84" name="直線矢印コネクタ 143"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="63" idx="3"/>
-                <a:endCxn id="68" idx="1"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5745855" y="1168958"/>
-                <a:ext cx="722456" cy="320963"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector2">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="85" name="直線矢印コネクタ 144"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="10800000">
-                <a:off x="5732725" y="1292060"/>
-                <a:ext cx="506150" cy="178792"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector3">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val -3135"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln>
-                <a:headEnd type="none"/>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="86" name="カギ線コネクタ 85"/>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="76" idx="3"/>
-                <a:endCxn id="68" idx="3"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="5745835" y="1933060"/>
-                <a:ext cx="722476" cy="669265"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector2">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5837809" y="2848363"/>
-              <a:ext cx="1243949" cy="432339"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartPredefinedProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>システムへ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>「コメント」を</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>更新し表示</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              </a:rPr>
+              <a:t>アクセス</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1355496" y="2050989"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="76" idx="2"/>
-              <a:endCxn id="57" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000" flipH="1">
-              <a:off x="5356320" y="2583044"/>
-              <a:ext cx="248620" cy="714357"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector2">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
+              </a:rPr>
+              <a:t>グーグルマップを使用</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1355495" y="2768963"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>マップ上にピンを表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1354677" y="3486937"/>
+            <a:ext cx="1244767" cy="427177"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualInput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ピンを選択</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3926545" y="1333015"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメントフォームを表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8136497" y="1327614"/>
+            <a:ext cx="1244767" cy="427177"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualInput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>食べログリンクを押下</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8136497" y="2045587"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>別ウィンドウを</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="183" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187423" y="1327614"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>店名管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5380023" y="2813748"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメント管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="50" name="カギ線コネクタ 49"/>
+          <xdr:cNvPr id="185" name="直線矢印コネクタ 184"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="57" idx="3"/>
+            <a:stCxn id="176" idx="2"/>
+            <a:endCxn id="177" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="6060161" y="962313"/>
-            <a:ext cx="1335922" cy="2026020"/>
+          <a:xfrm>
+            <a:off x="1977471" y="1765354"/>
+            <a:ext cx="0" cy="285635"/>
           </a:xfrm>
-          <a:prstGeom prst="bentConnector4">
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="186" name="直線矢印コネクタ 185"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="177" idx="2"/>
+            <a:endCxn id="178" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1977470" y="2483328"/>
+            <a:ext cx="1" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="187" name="直線矢印コネクタ 186"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="178" idx="2"/>
+            <a:endCxn id="179" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1977061" y="3201302"/>
+            <a:ext cx="409" cy="328353"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="188" name="直線矢印コネクタ 187"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5170491" y="1421469"/>
+            <a:ext cx="1016929" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="189" name="直線矢印コネクタ 188"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="183" idx="2"/>
+            <a:endCxn id="180" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5170494" y="1549184"/>
+            <a:ext cx="1016929" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="190" name="直線矢印コネクタ 189"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="181" idx="2"/>
+            <a:endCxn id="182" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8758472" y="1754791"/>
+            <a:ext cx="409" cy="290796"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1355495" y="4199749"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>別ウィンドウを</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3926135" y="3316066"/>
+            <a:ext cx="1244767" cy="427177"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualInput">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>「投稿する」ボタンを</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="193" name="カギ線コネクタ 192"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="191" idx="3"/>
+            <a:endCxn id="180" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2599444" y="1549185"/>
+            <a:ext cx="1327101" cy="2866734"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -6207"/>
-              <a:gd name="adj2" fmla="val 100136"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:ln>
@@ -4802,37 +3931,654 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+          <xdr:cNvPr id="194" name="カギ線コネクタ 193"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="64" idx="1"/>
+            <a:stCxn id="180" idx="0"/>
+            <a:endCxn id="181" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="2736109" y="2739715"/>
-            <a:ext cx="2066993" cy="1439329"/>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="6635041" y="-753507"/>
+            <a:ext cx="37317" cy="4210361"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd name="adj1" fmla="val 117225"/>
+              <a:gd name="adj1" fmla="val -627063"/>
             </a:avLst>
           </a:prstGeom>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
             <a:tailEnd type="arrow"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="195" name="直線矢印コネクタ 143"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="4889984" y="1971749"/>
+            <a:ext cx="1141772" cy="542223"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="196" name="直線矢印コネクタ 144"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="180" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="4958933" y="1760746"/>
+            <a:ext cx="1265032" cy="841910"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="197" name="カギ線コネクタ 196"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="192" idx="3"/>
+            <a:endCxn id="184" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5170902" y="3256887"/>
+            <a:ext cx="839623" cy="272768"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3926542" y="4015720"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
             <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
             <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメント欄を</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>更新し再表示</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="199" name="カギ線コネクタ 198"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="198" idx="1"/>
+            <a:endCxn id="180" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="3926541" y="1549186"/>
+            <a:ext cx="3" cy="2682705"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -7620000000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="200" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3926542" y="2025744"/>
+            <a:ext cx="1243949" cy="432339"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>投稿欄に名前とコメントを入力</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="201" name="直線矢印コネクタ 200"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="200" idx="2"/>
+            <a:endCxn id="192" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4548517" y="2458083"/>
+            <a:ext cx="2" cy="900701"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="202" name="直線矢印コネクタ 201"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="179" idx="2"/>
+            <a:endCxn id="191" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1977061" y="3914114"/>
+            <a:ext cx="409" cy="285635"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="203" name="直線矢印コネクタ 202"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="192" idx="2"/>
+            <a:endCxn id="198" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4548517" y="3743243"/>
+            <a:ext cx="2" cy="272477"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="204" name="直線矢印コネクタ 203"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="180" idx="2"/>
+            <a:endCxn id="200" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4548517" y="1765354"/>
+            <a:ext cx="3" cy="260390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -5364,10 +5110,10 @@
       <c r="O1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="74">
+      <c r="P1" s="64">
         <v>41810</v>
       </c>
-      <c r="Q1" s="75"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
@@ -5384,11 +5130,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
@@ -5433,17 +5179,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5454,15 +5200,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5473,15 +5219,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5529,19 +5275,19 @@
       <c r="A10" s="37"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="38"/>
@@ -5550,17 +5296,17 @@
       <c r="A11" s="37"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="38"/>
@@ -5569,17 +5315,17 @@
       <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="38"/>
@@ -5589,17 +5335,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5610,15 +5356,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5629,15 +5375,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5648,15 +5394,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -5667,15 +5413,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5706,15 +5452,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5727,13 +5473,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5746,13 +5492,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5765,13 +5511,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5784,13 +5530,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="34"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5803,13 +5549,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="34"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5822,13 +5568,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="34"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5882,16 +5628,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -5903,22 +5649,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68" t="s">
+      <c r="L29" s="62"/>
+      <c r="M29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68" t="s">
+      <c r="N29" s="62"/>
+      <c r="O29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="73"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5930,16 +5676,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="62" t="s">
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="63"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5951,14 +5697,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="65"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5970,14 +5716,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="65"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5989,14 +5735,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="65"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -6008,14 +5754,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6027,14 +5773,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6058,6 +5804,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -6067,12 +5819,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6090,8 +5836,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6101,36 +5847,38 @@
     <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
     <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -6210,62 +5958,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="59">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6850,17 +6598,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6879,7 +6627,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6899,26 +6647,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>津田沼近辺のラーメン屋検索ツール</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
@@ -7043,10 +6791,10 @@
       <c r="D8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="51" t="s">
         <v>41</v>
       </c>
@@ -7076,10 +6824,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
@@ -7107,10 +6855,10 @@
         <f t="shared" ref="D10:D13" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
@@ -7136,10 +6884,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
@@ -7165,10 +6913,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="25" t="s">
         <v>53</v>
       </c>
@@ -7194,10 +6942,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="25" t="s">
         <v>56</v>
       </c>
@@ -7220,8 +6968,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="21"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -7262,10 +7010,10 @@
       <c r="D16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="51" t="s">
         <v>41</v>
       </c>
@@ -7294,10 +7042,10 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="25" t="s">
         <v>63</v>
       </c>
@@ -7324,10 +7072,10 @@
       <c r="D18" s="28">
         <v>2</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="25" t="s">
         <v>67</v>
       </c>
@@ -7352,10 +7100,10 @@
       <c r="D19" s="56">
         <v>3</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="101"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="57" t="s">
         <v>70</v>
       </c>
@@ -7380,10 +7128,10 @@
       <c r="D20" s="28">
         <v>4</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="25" t="s">
         <v>71</v>
       </c>
@@ -7745,30 +7493,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
